--- a/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-06_segre.xlsx
+++ b/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-06_segre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/anna_lefoulon_ademe_fr/Documents/Bureau/3-OUTILS FRICHE/MUTAFRICHES/Tests_V1-ALGO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/anna_lefoulon_ademe_fr/Documents/Bureau/3-OUTILS FRICHE/MUTAFRICHES/Tests_V1-ALGO/V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{921A4232-8333-4CC1-919E-14815A089C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0815CC02-A561-41FF-BD40-F8E5A2D9AE78}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{921A4232-8333-4CC1-919E-14815A089C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71DBE29-84F0-40B6-B8C5-E2EFF8A2C01E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,13 @@
     <sheet name="Base" sheetId="2" r:id="rId2"/>
     <sheet name="Listes_déroulantes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Outil!$A$1:$K$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1049,7 +1052,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1254,20 +1257,16 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="19">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1405,6 +1404,128 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Outil"/>
+      <sheetName val="Base"/>
+      <sheetName val="Listes_déroulantes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="C29">
+            <v>7</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Très positif</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>8</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Positif</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>9</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Négatif</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>Très négatif</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1710,7 +1831,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" zoomScale="68" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1822,18 +1943,18 @@
     <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2001,7 +2122,7 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2407,31 +2528,31 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!D$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!D$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!D$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!D$31))))),"0","")</f>
-        <v>Positif</v>
+        <f>IFERROR(IF(C23&lt;[1]Base!C29,[1]Base!D29,IF(C23&lt;[1]Base!C30,[1]Base!D30,IF(C23&lt;[1]Base!C31,[1]Base!D31,[1]Base!D32))),"")</f>
+        <v>Négatif</v>
       </c>
       <c r="G23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!E$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!E$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!E$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!E$31))))),"0","")</f>
+        <f>IFERROR(IF(D23&lt;[1]Base!D29,[1]Base!E29,IF(D23&lt;[1]Base!D30,[1]Base!E30,IF(D23&lt;[1]Base!D31,[1]Base!E31,[1]Base!E32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="H23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!F$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!F$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!F$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!F$31))))),"0","")</f>
+        <f>IFERROR(IF(E23&lt;[1]Base!E29,[1]Base!F29,IF(E23&lt;[1]Base!E30,[1]Base!F30,IF(E23&lt;[1]Base!E31,[1]Base!F31,[1]Base!F32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="I23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!G$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!G$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!G$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!G$31))))),"0","")</f>
+        <f>IFERROR(IF(F23&lt;[1]Base!F29,[1]Base!G29,IF(F23&lt;[1]Base!F30,[1]Base!G30,IF(F23&lt;[1]Base!F31,[1]Base!G31,[1]Base!G32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!H$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!H$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!H$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!H$31))))),"0","")</f>
+        <f>IFERROR(IF(G23&lt;[1]Base!G29,[1]Base!H29,IF(G23&lt;[1]Base!G30,[1]Base!H30,IF(G23&lt;[1]Base!G31,[1]Base!H31,[1]Base!H32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="K23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!I$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!I$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!I$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!I$31))))),"0","")</f>
+        <f>IFERROR(IF(H23&lt;[1]Base!H29,[1]Base!I29,IF(H23&lt;[1]Base!H30,[1]Base!I30,IF(H23&lt;[1]Base!H31,[1]Base!I31,[1]Base!I32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="L23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!J$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!J$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!J$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!J$31))))),"0","")</f>
+        <f>IFERROR(IF(I23&lt;[1]Base!I29,[1]Base!J29,IF(I23&lt;[1]Base!I30,[1]Base!J30,IF(I23&lt;[1]Base!I31,[1]Base!J31,[1]Base!J32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="M23" s="4">
@@ -3176,7 +3297,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="20" cm="1">
         <f t="array" ref="F38">SUMPRODUCT(IF(F$12:F$37="Très Positif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Positif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Neutre",0.5,0),$M$12:$M$37)</f>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="G38" s="20" cm="1">
         <f t="array" ref="G38">SUMPRODUCT(IF(G$12:G$37="Très Positif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Positif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Neutre",0.5,0),$M$12:$M$37)</f>
@@ -3214,7 +3335,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="21" cm="1">
         <f t="array" ref="F39">SUMPRODUCT(IF(F$12:F$37="Négatif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Très négatif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Neutre",0.5,0),$M$12:$M$37)</f>
-        <v>13.25</v>
+        <v>14.25</v>
       </c>
       <c r="G39" s="21" cm="1">
         <f t="array" ref="G39">SUMPRODUCT(IF(G$12:G$37="Négatif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Très négatif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Neutre",0.5,0),$M$12:$M$37)</f>
@@ -3250,15 +3371,15 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="18"/>
       <c r="N40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3271,7 +3392,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="10">
         <f t="shared" ref="F41:L41" si="2">IF(F38+F39=0,0,F38/(F38+F39))</f>
-        <v>0.55833333333333335</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="2"/>
@@ -3421,15 +3542,15 @@
       </c>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F49" s="53">
+      <c r="F49" s="50">
         <f>F47-F41</f>
-        <v>-3.5606060606060641E-2</v>
+        <v>-2.2727272727273151E-3</v>
       </c>
       <c r="G49" s="50">
         <f t="shared" ref="G49:L49" si="4">G47-G41</f>
         <v>-2.1282327586206851E-2</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="50">
         <f t="shared" si="4"/>
         <v>-4.0898617511520796E-2</v>
       </c>
@@ -3437,7 +3558,7 @@
         <f t="shared" si="4"/>
         <v>-2.2177419354838745E-2</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="50">
         <f t="shared" si="4"/>
         <v>-3.1818181818181857E-2</v>
       </c>
@@ -3445,7 +3566,7 @@
         <f t="shared" si="4"/>
         <v>-3.6551724137931063E-2</v>
       </c>
-      <c r="L49" s="53">
+      <c r="L49" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
